--- a/data/processed/ethiopia_fi_unified_data_enriched.xlsx
+++ b/data/processed/ethiopia_fi_unified_data_enriched.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ethiopia_fi_unified_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Impact_sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ47"/>
+  <dimension ref="A1:AJ46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5310,48 +5311,86 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>EVT_ENRICH_001</t>
+          <t>REC_9999</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>event</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>policy</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
+          <t>observation</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>ACCESS</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Account Ownership Rate</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>ACC_OWNERSHIP</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>higher_better</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>52</v>
+      </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="n">
+        <v>46022</v>
+      </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
+      <c r="O45" t="n">
+        <v>2025</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr">
         <is>
-          <t>Government of Ethiopia</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr"/>
+          <t>Global Findex 2025</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>survey</t>
+        </is>
+      </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>https://id.gov.et</t>
+          <t>https://www.worldbank.org/en/publication/global-findex</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>high</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -5364,108 +5403,102 @@
       <c r="AD45" t="inlineStr"/>
       <c r="AE45" t="inlineStr">
         <is>
-          <t>Kudu T</t>
-        </is>
-      </c>
-      <c r="AF45" t="inlineStr">
-        <is>
-          <t>2026-01-30</t>
-        </is>
+          <t>Kalkidan Belayneh Debas</t>
+        </is>
+      </c>
+      <c r="AF45" s="2" t="n">
+        <v>46054.6955696724</v>
       </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t>Ethiopia launched the Fayda Digital ID system to enable digital service access.</t>
+          <t>Findex projected Ethiopia's national account ownership rate for 2025 at 52%.</t>
         </is>
       </c>
       <c r="AH45" t="inlineStr">
         <is>
-          <t>Digital ID reduces KYC barriers for account opening.</t>
-        </is>
-      </c>
-      <c r="AI45" t="inlineStr">
-        <is>
-          <t>Fayda Digital ID national rollout</t>
-        </is>
-      </c>
-      <c r="AJ45" t="inlineStr">
-        <is>
-          <t>2023-06-01</t>
-        </is>
-      </c>
+          <t>Useful for modeling trends beyond 2024.</t>
+        </is>
+      </c>
+      <c r="AI45" t="inlineStr"/>
+      <c r="AJ45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>OBS_ENRICH_001</t>
+          <t>EVT_9999</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>observation</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>ACCESS</t>
-        </is>
-      </c>
+          <t>event</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>policy</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Smartphone penetration</t>
+          <t>New Digital Inclusion Policy</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>ACC_SMARTPHONE_PCT</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>higher_better</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>28</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+          <t>EVT_DIGI_POLICY</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Implemented</t>
+        </is>
+      </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>percentage</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" s="2" t="n">
-        <v>44927</v>
+        <v>45672</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
+      <c r="O46" t="n">
+        <v>2025</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr">
         <is>
-          <t>GSMA</t>
+          <t>National Bank of Ethiopia</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>industry_report</t>
+          <t>regulator</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>https://www.gsma.com</t>
+          <t>https://www.nbe.gov.et/en/digital-inclusion-policy</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>high</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -5478,110 +5511,2117 @@
       <c r="AD46" t="inlineStr"/>
       <c r="AE46" t="inlineStr">
         <is>
+          <t>Kalkidan Belayneh Debas</t>
+        </is>
+      </c>
+      <c r="AF46" s="2" t="n">
+        <v>46054.69618526666</v>
+      </c>
+      <c r="AG46" t="inlineStr">
+        <is>
+          <t>National Bank implements a policy to accelerate digital account access.</t>
+        </is>
+      </c>
+      <c r="AH46" t="inlineStr">
+        <is>
+          <t>Event may influence future account ownership rates.</t>
+        </is>
+      </c>
+      <c r="AI46" t="inlineStr">
+        <is>
+          <t>Digital Inclusion Policy</t>
+        </is>
+      </c>
+      <c r="AJ46" s="2" t="n">
+        <v>45672</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AI18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>record_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>parent_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>record_type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pillar</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>indicator</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>indicator_code</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>indicator_direction</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>value_numeric</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>value_text</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>value_type</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>observation_date</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>period_start</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>period_end</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>fiscal_year</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>source_name</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>source_type</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>source_url</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>confidence</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>related_indicator</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>relationship_type</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>impact_direction</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>impact_magnitude</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>impact_estimate</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>lag_months</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>evidence_basis</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>comparable_country</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>collected_by</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>collection_date</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>original_text</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>IMP_0001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>EVT_0001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>impact_link</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ACCESS</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Telebirr effect on Account Ownership</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>44333</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>ACC_OWNERSHIP</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>increase</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="AB2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>literature</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>Kenya</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Example_Trainee</t>
+        </is>
+      </c>
+      <c r="AG2" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Kenya M-Pesa showed +20pp over 5 years</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>IMP_0002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>EVT_0001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>impact_link</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>USAGE</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Telebirr effect on Telebirr Users</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>users</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>44333</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>USG_TELEBIRR_USERS</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>increase</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>empirical</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>Example_Trainee</t>
+        </is>
+      </c>
+      <c r="AG3" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Direct subscriber acquisition</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>IMP_0003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>EVT_0001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>impact_link</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>USAGE</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Telebirr effect on P2P Transactions</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>25</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>44333</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>USG_P2P_COUNT</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>increase</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="AB4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>empirical</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>Example_Trainee</t>
+        </is>
+      </c>
+      <c r="AG4" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>New digital payment channel</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>IMP_0004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EVT_0002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>impact_link</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ACCESS</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Safaricom effect on 4G Coverage</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>15</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>ACC_4G_COV</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>increase</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="AB5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>empirical</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>Example_Trainee</t>
+        </is>
+      </c>
+      <c r="AG5" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>Network investment from competition</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>IMP_0005</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>EVT_0002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>impact_link</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>AFFORDABILITY</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Safaricom effect on Data Affordability</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>-20</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>AFF_DATA_INCOME</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>indirect</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>decrease</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="AB6" t="n">
+        <v>-20</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>literature</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>Rwanda</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>Example_Trainee</t>
+        </is>
+      </c>
+      <c r="AG6" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>Competition typically reduces prices</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>IMP_0006</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>EVT_0003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>impact_link</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>USAGE</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>M-Pesa effect on M-Pesa Users</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>users</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>USG_MPESA_USERS</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>increase</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>empirical</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>Example_Trainee</t>
+        </is>
+      </c>
+      <c r="AG7" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>Direct subscriber acquisition</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>IMP_0007</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>EVT_0003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>impact_link</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ACCESS</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>M-Pesa effect on Mobile Money Account Rate</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>ACC_MM_ACCOUNT</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>increase</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="AB8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>theoretical</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>Example_Trainee</t>
+        </is>
+      </c>
+      <c r="AG8" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>Second provider adds incremental accounts</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>IMP_0008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EVT_0004</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>impact_link</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ACCESS</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fayda effect on Account Ownership</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>10</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>ACC_OWNERSHIP</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>enabling</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>increase</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="AB9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>literature</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>Example_Trainee</t>
+        </is>
+      </c>
+      <c r="AG9" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>Aadhaar enabled +15-20% account opening in India</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>IMP_0009</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>EVT_0004</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>impact_link</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>GENDER</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fayda effect on Gender Gap</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>gap_pp</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>pp</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>GEN_GAP_ACC</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>indirect</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>decrease</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="AB10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>literature</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>Example_Trainee</t>
+        </is>
+      </c>
+      <c r="AG10" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>Women disproportionately lack traditional ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>IMP_0010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>EVT_0005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>impact_link</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>AFFORDABILITY</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>FX Reform effect on Data Affordability</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>30</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>AFF_DATA_INCOME</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>indirect</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>increase</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="AB11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>empirical</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>Example_Trainee</t>
+        </is>
+      </c>
+      <c r="AG11" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>Currency depreciation raises effective costs</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>IMP_0011</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>EVT_0007</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>impact_link</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>USAGE</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>M-Pesa Interop effect on M-Pesa Active Users</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>15</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>USG_MPESA_ACTIVE</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>increase</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="AB12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>literature</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>Tanzania</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>Example_Trainee</t>
+        </is>
+      </c>
+      <c r="AG12" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>Tanzania interoperability increased usage +20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>IMP_0012</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>EVT_0007</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>impact_link</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>USAGE</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>M-Pesa Interop effect on P2P Count</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>10</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>USG_P2P_COUNT</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>increase</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="AB13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>literature</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>Tanzania</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>Example_Trainee</t>
+        </is>
+      </c>
+      <c r="AG13" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>Cross-platform transactions now possible</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>IMP_0013</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>EVT_0008</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>impact_link</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>USAGE</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>EthioPay effect on P2P Count</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>15</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>46009</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>USG_P2P_COUNT</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>indirect</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>increase</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="AB14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>literature</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>Example_Trainee</t>
+        </is>
+      </c>
+      <c r="AG14" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>India UPI showed +25% volume increase</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>IMP_0014</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>EVT_0010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>impact_link</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>AFFORDABILITY</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Safaricom Price Hike effect on Data Affordability</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>10</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>46006</v>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>AFF_DATA_INCOME</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>increase</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="AB15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>empirical</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>Example_Trainee</t>
+        </is>
+      </c>
+      <c r="AG15" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>Direct price increase (may be offset by switching)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>IMP_ENRICH_001</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>EVT_ENRICH_001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>impact_link</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ACCESS</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>ACC_OWNERSHIP</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>Comparable evidence from Kenya and Rwanda digital ID programs</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr">
+        <is>
           <t>Kudu T</t>
         </is>
       </c>
-      <c r="AF46" s="2" t="n">
+      <c r="AG16" s="2" t="n">
         <v>46052</v>
       </c>
-      <c r="AG46" t="inlineStr">
-        <is>
-          <t>Smartphone penetration in Ethiopia reached approximately 28% in 2023.</t>
-        </is>
-      </c>
-      <c r="AH46" t="inlineStr">
-        <is>
-          <t>Smartphone access enables app-based digital financial services.</t>
-        </is>
-      </c>
-      <c r="AI46" t="inlineStr"/>
-      <c r="AJ46" t="inlineStr"/>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>Digital ID programs reduce onboarding friction for financial accounts.</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>Effect size conservative due to implementation and adoption risks.</t>
+        </is>
+      </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>IMP_ENRICH_001</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>EVT_ENRICH_001</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>event</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>policy</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" s="2" t="n">
-        <v>45078</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>Government of Ethiopia</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>government</t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>https://id.gov.et</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>impact_link</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ACCESS</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
       </c>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
-      <c r="AA47" t="inlineStr"/>
-      <c r="AB47" t="inlineStr"/>
-      <c r="AC47" t="inlineStr"/>
-      <c r="AD47" t="inlineStr"/>
-      <c r="AE47" t="inlineStr">
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>ACC_OWNERSHIP</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>Comparable evidence from Kenya and Rwanda digital ID programs</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr">
         <is>
           <t>Kudu T</t>
         </is>
       </c>
-      <c r="AF47" s="2" t="n">
+      <c r="AG17" s="2" t="n">
         <v>46052</v>
       </c>
-      <c r="AG47" t="inlineStr">
-        <is>
-          <t>Ethiopia launched the Fayda Digital ID system to enable access to digital services.</t>
-        </is>
-      </c>
-      <c r="AH47" t="inlineStr">
-        <is>
-          <t>Digital ID reduces KYC barriers for account opening.</t>
-        </is>
-      </c>
-      <c r="AI47" t="inlineStr">
-        <is>
-          <t>Fayda Digital ID national rollout</t>
-        </is>
-      </c>
-      <c r="AJ47" t="inlineStr"/>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>Digital ID programs reduce onboarding friction for financial accounts.</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>Effect size conservative due to implementation and adoption risks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>IMP_ENRICH_001</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>EVT_ENRICH_001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>impact_link</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ACCESS</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>ACC_OWNERSHIP</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>Comparable evidence from Kenya and Rwanda digital ID programs</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>Kudu T</t>
+        </is>
+      </c>
+      <c r="AG18" s="2" t="n">
+        <v>46052</v>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>Digital ID programs reduce onboarding friction for financial accounts.</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>Effect size conservative due to implementation and adoption risks.</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
